--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -15,12 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
   <si>
     <t>Create an order</t>
   </si>
@@ -274,15 +273,9 @@
     <t>View Further Test Recommendation</t>
   </si>
   <si>
-    <t>Lab Worker, Employees, Customer</t>
-  </si>
-  <si>
     <t>Approve Further Test Recommendation</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>Read Assay Work Order Status</t>
   </si>
   <si>
@@ -298,9 +291,6 @@
     <t>View Order Quote</t>
   </si>
   <si>
-    <t>Northwest Labs Reporting Subsystem</t>
-  </si>
-  <si>
     <t>Create Customer Report</t>
   </si>
   <si>
@@ -388,9 +378,6 @@
     <t>Technical Director, Technical Assistant</t>
   </si>
   <si>
-    <t>Prepare Assay Summary Report Media</t>
-  </si>
-  <si>
     <t>View Raw Assay Data</t>
   </si>
   <si>
@@ -403,17 +390,71 @@
     <t>Update Ad-Hoc Report</t>
   </si>
   <si>
-    <t>Sale Rep, Manager</t>
-  </si>
-  <si>
     <t>View Ad-Hoc Report</t>
+  </si>
+  <si>
+    <t>Sales Rep, Manager, Lab Manager</t>
+  </si>
+  <si>
+    <t>Sales Rep, Manager, Lab Manager, Customer</t>
+  </si>
+  <si>
+    <t>Sales Rep, Customer</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Northwest Labs Managerial Reporting Subsystem</t>
+  </si>
+  <si>
+    <t>Northwest Labs Assay Reporting Subsystem</t>
+  </si>
+  <si>
+    <t>Prepare Assay Report Media</t>
+  </si>
+  <si>
+    <t>Compile All Report Data (Raw Data, Data Report Summary Report</t>
+  </si>
+  <si>
+    <t>Send Completed Assay Report</t>
+  </si>
+  <si>
+    <t>X Sales Rep</t>
+  </si>
+  <si>
+    <t>X Customer</t>
+  </si>
+  <si>
+    <t>X Billing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X </t>
+  </si>
+  <si>
+    <t>X Technical Assistant</t>
+  </si>
+  <si>
+    <t>Create Business Lead</t>
+  </si>
+  <si>
+    <t>Update Business Lead</t>
+  </si>
+  <si>
+    <t>Delete Buisness Lead</t>
+  </si>
+  <si>
+    <t>View Business Lead</t>
+  </si>
+  <si>
+    <t>Convert Business Lead to Customer Account</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -465,6 +506,26 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -492,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -503,23 +564,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
     <dxf>
       <font>
         <b val="0"/>
@@ -534,24 +603,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -585,9 +636,27 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -678,6 +747,96 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -934,60 +1093,6 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1009,19 +1114,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="A4:B11" totalsRowShown="0" dataDxfId="25">
-  <autoFilter ref="A4:B11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="24"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="23"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla18345" displayName="Tabla18345" ref="A95:B124" totalsRowShown="0">
-  <autoFilter ref="A95:B124"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B4:C16" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="1"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="0"/>
@@ -1030,31 +1124,75 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla18345" displayName="Tabla18345" ref="B99:C118" totalsRowShown="0">
+  <autoFilter ref="B99:C118"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Use Case" dataDxfId="9"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla183456" displayName="Tabla183456" ref="B121:C132" totalsRowShown="0">
+  <autoFilter ref="B121:C132"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Use Case" dataDxfId="4"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="A22:B36" totalsRowShown="0" dataDxfId="22">
-  <autoFilter ref="A22:B36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B27:C41" totalsRowShown="0" dataDxfId="27">
+  <autoFilter ref="B27:C41"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="21"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="20"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="26"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="A39:B44" totalsRowShown="0" dataDxfId="19">
-  <autoFilter ref="A39:B44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B44:C49" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="B44:C49"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="18"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="17"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="23"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="A49:B59" totalsRowShown="0" dataDxfId="16">
-  <autoFilter ref="A49:B59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B54:C64" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B54:C64"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Use Case" dataDxfId="20"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B67:C73" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="B67:C73"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Use Case" dataDxfId="17"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="B76:C80" totalsRowShown="0">
+  <autoFilter ref="B76:C80"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="15"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="14"/>
@@ -1063,56 +1201,34 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="A62:B68" totalsRowShown="0" dataDxfId="13">
-  <autoFilter ref="A62:B68"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B19:C24" totalsRowShown="0" dataDxfId="7">
+  <autoFilter ref="B19:C24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="12"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="11"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="A71:B75" totalsRowShown="0">
-  <autoFilter ref="A71:B75"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="10"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="9"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="A14:B19" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A14:B19"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="7"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="6"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="6"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla183" displayName="Tabla183" ref="A78:B82" totalsRowShown="0">
-  <autoFilter ref="A78:B82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla183" displayName="Tabla183" ref="B83:C87" totalsRowShown="0">
+  <autoFilter ref="B83:C87"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="4"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="5"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="13"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla1834" displayName="Tabla1834" ref="A85:B92" totalsRowShown="0">
-  <autoFilter ref="A85:B92"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla1834" displayName="Tabla1834" ref="B90:C96" totalsRowShown="0">
+  <autoFilter ref="B90:C96"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="3"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="2"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="11"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1415,932 +1531,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="11"/>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="15" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11">
+        <v>13</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="11">
+        <v>14</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="11">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="11">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="11">
+        <v>17</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="E25"/>
+    </row>
+    <row r="26" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11">
+        <v>18</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11">
+        <v>19</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11">
+        <v>20</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11">
+        <v>21</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="11">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="11">
+        <v>23</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A34" s="11">
+        <v>24</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11">
+        <v>27</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11">
+        <v>28</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11">
+        <v>29</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11">
+        <v>30</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11">
+        <v>31</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+    </row>
+    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="11">
+        <v>32</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="11">
+        <v>33</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="11">
+        <v>34</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="11">
+        <v>35</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="11">
+        <v>36</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B50" s="15"/>
+      <c r="C50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="11">
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="11">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="11">
+        <v>39</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="11">
         <v>40</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="B58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="11">
+        <v>41</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="11">
+        <v>42</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="11">
+        <v>43</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="11">
+        <v>44</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="11">
+        <v>45</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="11">
+        <v>46</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="14"/>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11">
+        <v>47</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11">
+        <v>48</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="11">
+        <v>49</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11">
+        <v>50</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="11">
+        <v>51</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="11">
+        <v>52</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="14"/>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="11">
+        <v>53</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="11">
+        <v>54</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="11">
+        <v>55</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11">
+        <v>56</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="14"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11">
+        <v>57</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="11">
+        <v>58</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="11">
+        <v>59</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="11">
+        <v>60</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="11">
+        <v>61</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="20"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11">
+        <v>62</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="11">
+        <v>63</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="20"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="11">
+        <v>64</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="11">
+        <v>65</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="11">
+        <v>66</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="14"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="11">
+        <v>67</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="11">
+        <v>68</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="11">
+        <v>69</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="11">
+        <v>70</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="11">
+        <v>71</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>72</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="11">
+        <v>73</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="11">
+        <v>74</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="11">
+        <v>75</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11">
+        <v>76</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="11">
+        <v>77</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="11">
+        <v>78</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11">
+        <v>79</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="11">
+        <v>80</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="11">
+        <v>81</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="11">
+        <v>82</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="11">
+        <v>83</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="11">
+        <v>84</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="11">
+        <v>85</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C120" s="14"/>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="11">
+        <v>86</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="11">
+        <v>87</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="11">
+        <v>88</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="11">
         <v>89</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B125" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="11">
         <v>90</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+      <c r="B126" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="11">
         <v>91</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="11"/>
-    </row>
-    <row r="22" spans="1:2" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="6" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="12"/>
-    </row>
-    <row r="39" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="14"/>
-    </row>
-    <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="12"/>
-    </row>
-    <row r="49" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="11"/>
-    </row>
-    <row r="62" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="11"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="1"/>
-    </row>
-    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B77" s="11"/>
-    </row>
-    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B84" s="11"/>
-    </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="15"/>
-      <c r="B92" s="9"/>
-    </row>
-    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+      <c r="B127" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E127" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="11">
         <v>92</v>
       </c>
-      <c r="B94" s="11"/>
-    </row>
-    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B128" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E128"/>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="11">
         <v>93</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+      <c r="B129" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="11">
         <v>94</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="B130" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E130" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="11">
         <v>95</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E131" s="11"/>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="15" t="s">
+      <c r="B132" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B118" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="15"/>
-      <c r="B124" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A61:B61"/>
+  <mergeCells count="12">
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B50:C50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="10">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2351,6 +2882,7 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -567,23 +567,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,117 +618,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -837,6 +729,60 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1093,6 +1039,60 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1114,11 +1114,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B4:C16" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B4:C16" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="1"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="0"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="26"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,8 +1128,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla18345" displayName="Tabla18345" ref="B99:C118" totalsRowShown="0">
   <autoFilter ref="B99:C118"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="9"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="8"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="3"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1139,27 +1139,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla183456" displayName="Tabla183456" ref="B121:C132" totalsRowShown="0">
   <autoFilter ref="B121:C132"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="4"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="3"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="1"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B27:C41" totalsRowShown="0" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B27:C41" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="B27:C41"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="26"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B44:C49" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="B44:C49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="23"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="22"/>
@@ -1168,9 +1157,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B54:C64" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="B54:C64"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B44:C49" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B44:C49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="20"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="19"/>
@@ -1179,12 +1168,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B67:C73" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="B67:C73"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B54:C64" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="B54:C64"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="17"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B67:C73" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B67:C73"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Use Case" dataDxfId="14"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1194,19 +1194,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="B76:C80" totalsRowShown="0">
   <autoFilter ref="B76:C80"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="15"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="14"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="12"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B19:C24" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B19:C24" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="B19:C24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="6"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="5"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="9"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,8 +1216,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla183" displayName="Tabla183" ref="B83:C87" totalsRowShown="0">
   <autoFilter ref="B83:C87"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="13"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="12"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="7"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,8 +1227,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla1834" displayName="Tabla1834" ref="B90:C96" totalsRowShown="0">
   <autoFilter ref="B90:C96"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="11"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="10"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="5"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1554,10 +1554,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1577,7 +1577,7 @@
       <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       <c r="C8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -1710,10 +1710,10 @@
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="14"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
@@ -1777,7 +1777,7 @@
       <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="14"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
@@ -1819,13 +1819,13 @@
       <c r="A29" s="11">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       <c r="C30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="15" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="C31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       <c r="C35" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
       <c r="C36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="15" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       <c r="C38" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1966,7 +1966,7 @@
       <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="15" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       <c r="C41" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="15" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1989,10 +1989,10 @@
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
@@ -2056,21 +2056,21 @@
       <c r="C49" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
@@ -2195,10 +2195,10 @@
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
@@ -2279,10 +2279,10 @@
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
@@ -2340,10 +2340,10 @@
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C82" s="14"/>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
@@ -2398,10 +2398,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="14"/>
+      <c r="C89" s="18"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
@@ -2421,7 +2421,7 @@
       <c r="C91" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E91" s="20"/>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
@@ -2444,7 +2444,7 @@
       <c r="C93" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E93" s="20"/>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
@@ -2478,15 +2478,15 @@
       <c r="C96" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E96" s="20" t="s">
+      <c r="E96" s="15" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C98" s="14"/>
+      <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
@@ -2594,7 +2594,7 @@
       <c r="C108" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="E108" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       <c r="C116" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E116" s="20" t="s">
+      <c r="E116" s="15" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2712,10 +2712,10 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="14"/>
+      <c r="C120" s="18"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
@@ -2780,7 +2780,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="127" spans="1:5" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
         <v>91</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="C127" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E127" s="20" t="s">
+      <c r="E127" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>94</v>
       </c>
-      <c r="B130" s="21" t="s">
+      <c r="B130" s="16" t="s">
         <v>131</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E130" s="20" t="s">
+      <c r="E130" s="15" t="s">
         <v>137</v>
       </c>
     </row>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -1533,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\SourceTree Local Repository\INTEX-GROUP210\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VanessaL\Documents\INTEX-GROUP210\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,15 +129,6 @@
     <t>Northwest Labs Inventory Subsystem</t>
   </si>
   <si>
-    <t>Sales Rep, Manager, Customer</t>
-  </si>
-  <si>
-    <t>Sales Rep, Manager</t>
-  </si>
-  <si>
-    <t>Manager, Accountant, Sales Rep</t>
-  </si>
-  <si>
     <t>Bill Customer</t>
   </si>
   <si>
@@ -162,9 +153,6 @@
     <t>Read Compound Weighing and Dispensing Log</t>
   </si>
   <si>
-    <t>Lab Worker, Sales Rep, Manager, Customer</t>
-  </si>
-  <si>
     <t>Lab Worker, Manager</t>
   </si>
   <si>
@@ -327,21 +315,9 @@
     <t>Manager, Marketing Director</t>
   </si>
   <si>
-    <t>Create Monthly Sales Reports</t>
-  </si>
-  <si>
-    <t>Update Monthly Sales Reports</t>
-  </si>
-  <si>
-    <t>View Monthly Sales Reports</t>
-  </si>
-  <si>
     <t xml:space="preserve">Management, Marketing Director, </t>
   </si>
   <si>
-    <t>Archive Monthly Sales Reports</t>
-  </si>
-  <si>
     <t>Archive Profitibility Reports</t>
   </si>
   <si>
@@ -393,15 +369,6 @@
     <t>View Ad-Hoc Report</t>
   </si>
   <si>
-    <t>Sales Rep, Manager, Lab Manager</t>
-  </si>
-  <si>
-    <t>Sales Rep, Manager, Lab Manager, Customer</t>
-  </si>
-  <si>
-    <t>Sales Rep, Customer</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -420,9 +387,6 @@
     <t>Send Completed Assay Report</t>
   </si>
   <si>
-    <t>X Sales Rep</t>
-  </si>
-  <si>
     <t>X Customer</t>
   </si>
   <si>
@@ -448,12 +412,48 @@
   </si>
   <si>
     <t>Convert Business Lead to Customer Account</t>
+  </si>
+  <si>
+    <t>Sales Representative, Manager</t>
+  </si>
+  <si>
+    <t>X Sales Representative</t>
+  </si>
+  <si>
+    <t>Sales Representative, Manager, Customer</t>
+  </si>
+  <si>
+    <t>Sales Representative, Manager, Lab Manager</t>
+  </si>
+  <si>
+    <t>Sales Representative, Manager, Lab Manager, Customer</t>
+  </si>
+  <si>
+    <t>Lab Worker, Sales Representative, Manager, Customer</t>
+  </si>
+  <si>
+    <t>Sales Representative, Customer</t>
+  </si>
+  <si>
+    <t>Manager, Accountant, Sales Representative</t>
+  </si>
+  <si>
+    <t>Create Monthly Sales Representativeorts</t>
+  </si>
+  <si>
+    <t>Update Monthly Sales Representativeorts</t>
+  </si>
+  <si>
+    <t>View Monthly Sales Representativeorts</t>
+  </si>
+  <si>
+    <t>Archive Monthly Sales Representativeorts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -501,10 +501,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -567,23 +569,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,117 +620,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -837,6 +731,60 @@
         <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1093,6 +1041,60 @@
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1114,11 +1116,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B4:C16" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B4:C16" totalsRowShown="0" dataDxfId="27">
   <autoFilter ref="B4:C16"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="1"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="0"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="26"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1128,8 +1130,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla18345" displayName="Tabla18345" ref="B99:C118" totalsRowShown="0">
   <autoFilter ref="B99:C118"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="9"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="8"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="3"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1139,27 +1141,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla183456" displayName="Tabla183456" ref="B121:C132" totalsRowShown="0">
   <autoFilter ref="B121:C132"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="4"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="3"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="1"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B27:C41" totalsRowShown="0" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B27:C41" totalsRowShown="0" dataDxfId="24">
   <autoFilter ref="B27:C41"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="26"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="25"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B44:C49" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="B44:C49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="23"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="22"/>
@@ -1168,9 +1159,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B54:C64" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="B54:C64"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B44:C49" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B44:C49"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="20"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="19"/>
@@ -1179,12 +1170,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B67:C73" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="B67:C73"/>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B54:C64" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="B54:C64"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="17"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B67:C73" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B67:C73"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Use Case" dataDxfId="14"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1194,19 +1196,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="B76:C80" totalsRowShown="0">
   <autoFilter ref="B76:C80"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="15"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="14"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="12"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B19:C24" totalsRowShown="0" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B19:C24" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="B19:C24"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="6"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="5"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="9"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,8 +1218,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla183" displayName="Tabla183" ref="B83:C87" totalsRowShown="0">
   <autoFilter ref="B83:C87"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="13"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="12"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="7"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1227,15 +1229,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla1834" displayName="Tabla1834" ref="B90:C96" totalsRowShown="0">
   <autoFilter ref="B90:C96"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Use Case" dataDxfId="11"/>
-    <tableColumn id="2" name="Users/actors" dataDxfId="10"/>
+    <tableColumn id="1" name="Use Case" dataDxfId="5"/>
+    <tableColumn id="2" name="Users/actors" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium27" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1310,23 +1312,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1362,23 +1347,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1533,11 +1501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
@@ -1554,10 +1522,10 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
@@ -1572,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1586,10 +1554,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1597,10 +1565,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1611,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1625,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1636,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1644,10 +1612,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1655,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1666,10 +1634,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1677,10 +1645,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1688,10 +1656,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1699,10 +1667,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1710,10 +1678,10 @@
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="14"/>
+      <c r="B18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
@@ -1728,10 +1696,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1739,10 +1707,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1750,10 +1718,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1761,10 +1729,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1772,13 +1740,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>127</v>
+        <v>58</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1789,10 +1757,10 @@
     </row>
     <row r="26" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="14"/>
+      <c r="B26" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
@@ -1808,10 +1776,10 @@
         <v>18</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E28" s="6"/>
     </row>
@@ -1819,14 +1787,14 @@
       <c r="A29" s="11">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>127</v>
+      <c r="B29" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1834,13 +1802,13 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1848,13 +1816,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>127</v>
+        <v>38</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1862,10 +1830,10 @@
         <v>22</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32" s="6"/>
     </row>
@@ -1874,10 +1842,10 @@
         <v>23</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1885,10 +1853,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,13 +1864,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>127</v>
+        <v>38</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1910,13 +1878,13 @@
         <v>26</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>135</v>
+        <v>49</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1924,10 +1892,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E37"/>
     </row>
@@ -1936,13 +1904,13 @@
         <v>28</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>127</v>
+        <v>38</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1950,10 +1918,10 @@
         <v>29</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1961,13 +1929,13 @@
         <v>30</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1975,13 +1943,13 @@
         <v>31</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1989,10 +1957,10 @@
       <c r="C42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="17"/>
+      <c r="B43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
@@ -2010,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2021,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2032,7 +2000,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2043,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2051,26 +2019,26 @@
         <v>36</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="16"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="17"/>
+      <c r="B53" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
@@ -2195,10 +2163,10 @@
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C66" s="14"/>
+      <c r="C66" s="18"/>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
@@ -2216,7 +2184,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2249,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2279,10 +2247,10 @@
       <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="14"/>
+      <c r="C75" s="18"/>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="3" t="s">
@@ -2300,7 +2268,7 @@
         <v>26</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2311,7 +2279,7 @@
         <v>27</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2322,7 +2290,7 @@
         <v>28</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2333,17 +2301,17 @@
         <v>29</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="14"/>
+      <c r="B82" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="18"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
@@ -2358,10 +2326,10 @@
         <v>57</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,10 +2337,10 @@
         <v>58</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2380,10 +2348,10 @@
         <v>59</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2391,17 +2359,17 @@
         <v>60</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="14"/>
+      <c r="B89" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" s="18"/>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="7" t="s">
@@ -2416,22 +2384,22 @@
         <v>61</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E91" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="E91" s="15"/>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
         <v>62</v>
       </c>
       <c r="B92" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,22 +2407,22 @@
         <v>63</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="20"/>
+        <v>68</v>
+      </c>
+      <c r="E93" s="15"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
         <v>64</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2462,10 +2430,10 @@
         <v>65</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2473,20 +2441,20 @@
         <v>66</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>134</v>
+        <v>76</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="14"/>
+      <c r="B98" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C98" s="18"/>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="7" t="s">
@@ -2501,7 +2469,7 @@
         <v>67</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>24</v>
@@ -2512,7 +2480,7 @@
         <v>68</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>24</v>
@@ -2523,10 +2491,10 @@
         <v>69</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2534,7 +2502,7 @@
         <v>70</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>24</v>
@@ -2545,7 +2513,7 @@
         <v>71</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>3</v>
@@ -2556,7 +2524,7 @@
         <v>72</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>3</v>
@@ -2567,7 +2535,7 @@
         <v>73</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>3</v>
@@ -2578,7 +2546,7 @@
         <v>74</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>3</v>
@@ -2589,13 +2557,13 @@
         <v>75</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="20" t="s">
-        <v>136</v>
+      <c r="E108" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2603,7 +2571,7 @@
         <v>76</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>3</v>
@@ -2614,10 +2582,10 @@
         <v>77</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,7 +2593,7 @@
         <v>78</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>3</v>
@@ -2636,7 +2604,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>3</v>
@@ -2647,7 +2615,7 @@
         <v>80</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>3</v>
@@ -2658,10 +2626,10 @@
         <v>81</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2669,7 +2637,7 @@
         <v>82</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>3</v>
@@ -2680,13 +2648,13 @@
         <v>83</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E116" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
+      </c>
+      <c r="E116" s="15" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2694,10 +2662,10 @@
         <v>84</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,17 +2673,17 @@
         <v>85</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C120" s="14"/>
+      <c r="B120" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" s="18"/>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
@@ -2730,10 +2698,10 @@
         <v>86</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2741,10 +2709,10 @@
         <v>87</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2752,10 +2720,10 @@
         <v>88</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2763,10 +2731,10 @@
         <v>89</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2774,10 +2742,10 @@
         <v>90</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2785,13 +2753,13 @@
         <v>91</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E127" s="20" t="s">
-        <v>127</v>
+        <v>101</v>
+      </c>
+      <c r="E127" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2799,10 +2767,10 @@
         <v>92</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E128"/>
     </row>
@@ -2811,24 +2779,24 @@
         <v>93</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="11">
         <v>94</v>
       </c>
-      <c r="B130" s="21" t="s">
-        <v>131</v>
+      <c r="B130" s="16" t="s">
+        <v>120</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E130" s="20" t="s">
-        <v>137</v>
+        <v>110</v>
+      </c>
+      <c r="E130" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2836,10 +2804,10 @@
         <v>95</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E131" s="11"/>
     </row>
@@ -2848,10 +2816,10 @@
         <v>96</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -315,15 +315,6 @@
     <t>View Performance Report</t>
   </si>
   <si>
-    <t>Create Profitibility Reports</t>
-  </si>
-  <si>
-    <t>Update Profitibility Reports</t>
-  </si>
-  <si>
-    <t>View Profitibility Reports</t>
-  </si>
-  <si>
     <t>Manager, Marketing Director</t>
   </si>
   <si>
@@ -342,9 +333,6 @@
     <t>Archive Monthly Sales Reports</t>
   </si>
   <si>
-    <t>Archive Profitibility Reports</t>
-  </si>
-  <si>
     <t>Archive Performance Report</t>
   </si>
   <si>
@@ -448,6 +436,18 @@
   </si>
   <si>
     <t>Convert Business Lead to Customer Account</t>
+  </si>
+  <si>
+    <t>Create Profitability Reports</t>
+  </si>
+  <si>
+    <t>Update Profitability Reports</t>
+  </si>
+  <si>
+    <t>View Profitability Reports</t>
+  </si>
+  <si>
+    <t>Archive Profitability Reports</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1578,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1611,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1636,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1647,7 +1647,7 @@
         <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1655,7 +1655,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>37</v>
@@ -1666,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>37</v>
@@ -1677,7 +1677,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>37</v>
@@ -1688,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>37</v>
@@ -1699,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>37</v>
@@ -1778,7 +1778,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1826,7 +1826,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1840,7 +1840,7 @@
         <v>47</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1854,7 +1854,7 @@
         <v>41</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1902,7 +1902,7 @@
         <v>41</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1916,7 +1916,7 @@
         <v>53</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1942,7 +1942,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1967,7 +1967,7 @@
         <v>47</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1978,10 +1978,10 @@
         <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2057,7 +2057,7 @@
         <v>36</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2479,12 +2479,12 @@
         <v>80</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C98" s="18"/>
     </row>
@@ -2578,7 +2578,7 @@
         <v>74</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>3</v>
@@ -2589,13 +2589,13 @@
         <v>75</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2603,7 +2603,7 @@
         <v>76</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>3</v>
@@ -2614,10 +2614,10 @@
         <v>77</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2625,7 +2625,7 @@
         <v>78</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>3</v>
@@ -2636,7 +2636,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>3</v>
@@ -2647,7 +2647,7 @@
         <v>80</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>3</v>
@@ -2658,10 +2658,10 @@
         <v>81</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2669,7 +2669,7 @@
         <v>82</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>3</v>
@@ -2680,13 +2680,13 @@
         <v>83</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2694,7 +2694,7 @@
         <v>84</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>37</v>
@@ -2705,7 +2705,7 @@
         <v>85</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>37</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="17" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C120" s="18"/>
     </row>
@@ -2730,7 +2730,7 @@
         <v>86</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>41</v>
@@ -2741,10 +2741,10 @@
         <v>87</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2752,10 +2752,10 @@
         <v>88</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2763,10 +2763,10 @@
         <v>89</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2774,10 +2774,10 @@
         <v>90</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="11" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2785,13 +2785,13 @@
         <v>91</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2799,10 +2799,10 @@
         <v>92</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E128"/>
     </row>
@@ -2811,10 +2811,10 @@
         <v>93</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,13 +2822,13 @@
         <v>94</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2836,10 +2836,10 @@
         <v>95</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E131" s="11"/>
     </row>
@@ -2848,10 +2848,10 @@
         <v>96</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VanessaL\Documents\INTEX-GROUP210\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\Documents\SourceTree Local Repository\INTEX-GROUP210\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -303,24 +303,12 @@
     <t>View Performance Report</t>
   </si>
   <si>
-    <t>Create Profitibility Reports</t>
-  </si>
-  <si>
-    <t>Update Profitibility Reports</t>
-  </si>
-  <si>
-    <t>View Profitibility Reports</t>
-  </si>
-  <si>
     <t>Manager, Marketing Director</t>
   </si>
   <si>
     <t xml:space="preserve">Management, Marketing Director, </t>
   </si>
   <si>
-    <t>Archive Profitibility Reports</t>
-  </si>
-  <si>
     <t>Archive Performance Report</t>
   </si>
   <si>
@@ -448,12 +436,24 @@
   </si>
   <si>
     <t>Archive Monthly Sales Representativeorts</t>
+  </si>
+  <si>
+    <t>Create Profitability Reports</t>
+  </si>
+  <si>
+    <t>Update Profitability Reports</t>
+  </si>
+  <si>
+    <t>View Profitability Reports</t>
+  </si>
+  <si>
+    <t>Archive Profitability Reports</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1237,7 +1237,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1312,6 +1312,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1347,6 +1364,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1501,11 +1535,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
@@ -1543,10 +1577,10 @@
         <v>83</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1557,7 +1591,7 @@
         <v>84</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1568,7 +1602,7 @@
         <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1579,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1593,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1604,7 +1638,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1615,7 +1649,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1623,10 +1657,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1634,10 +1668,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1645,10 +1679,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1656,10 +1690,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1667,10 +1701,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1746,7 +1780,7 @@
         <v>58</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1794,7 +1828,7 @@
         <v>38</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1805,10 +1839,10 @@
         <v>81</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1822,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1870,7 +1904,7 @@
         <v>38</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1884,7 +1918,7 @@
         <v>49</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1910,7 +1944,7 @@
         <v>38</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1932,10 +1966,10 @@
         <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1946,10 +1980,10 @@
         <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1978,7 +2012,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -1989,7 +2023,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2000,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2011,7 +2045,7 @@
         <v>7</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2022,10 +2056,10 @@
         <v>50</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
@@ -2184,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2217,7 +2251,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2447,12 +2481,12 @@
         <v>76</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="17" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C98" s="18"/>
     </row>
@@ -2546,7 +2580,7 @@
         <v>74</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>3</v>
@@ -2556,22 +2590,22 @@
       <c r="A108" s="11">
         <v>75</v>
       </c>
-      <c r="B108" s="12" t="s">
-        <v>94</v>
+      <c r="B108" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="11">
         <v>76</v>
       </c>
-      <c r="B109" s="12" t="s">
-        <v>95</v>
+      <c r="B109" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>3</v>
@@ -2581,19 +2615,19 @@
       <c r="A110" s="11">
         <v>77</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>96</v>
+      <c r="B110" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="11">
         <v>78</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>99</v>
+      <c r="B111" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>3</v>
@@ -2604,7 +2638,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>3</v>
@@ -2615,7 +2649,7 @@
         <v>80</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>3</v>
@@ -2626,10 +2660,10 @@
         <v>81</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C114" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2637,7 +2671,7 @@
         <v>82</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>3</v>
@@ -2648,13 +2682,13 @@
         <v>83</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2662,10 +2696,10 @@
         <v>84</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2673,15 +2707,15 @@
         <v>85</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C120" s="18"/>
     </row>
@@ -2698,7 +2732,7 @@
         <v>86</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C122" s="9" t="s">
         <v>38</v>
@@ -2709,10 +2743,10 @@
         <v>87</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2720,10 +2754,10 @@
         <v>88</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2731,10 +2765,10 @@
         <v>89</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2742,10 +2776,10 @@
         <v>90</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127" spans="1:5" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2753,13 +2787,13 @@
         <v>91</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2767,10 +2801,10 @@
         <v>92</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E128"/>
     </row>
@@ -2779,10 +2813,10 @@
         <v>93</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2790,13 +2824,13 @@
         <v>94</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2804,10 +2838,10 @@
         <v>95</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E131" s="11"/>
     </row>
@@ -2816,10 +2850,10 @@
         <v>96</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="141">
   <si>
     <t>Create an order</t>
   </si>
@@ -45,24 +45,6 @@
     <t>Archive customer account</t>
   </si>
   <si>
-    <t>Create staff account</t>
-  </si>
-  <si>
-    <t>Update staff account</t>
-  </si>
-  <si>
-    <t>View staff account</t>
-  </si>
-  <si>
-    <t>Archive staff account</t>
-  </si>
-  <si>
-    <t>View staff schedule</t>
-  </si>
-  <si>
-    <t>Update staff schedule</t>
-  </si>
-  <si>
     <t>Create manager account</t>
   </si>
   <si>
@@ -141,9 +123,6 @@
     <t>Update Compound Reciept Log</t>
   </si>
   <si>
-    <t>Send Compound Reciept Confirmation</t>
-  </si>
-  <si>
     <t>Update Compound Weighing and Dispensing Log</t>
   </si>
   <si>
@@ -153,24 +132,9 @@
     <t>Read Compound Weighing and Dispensing Log</t>
   </si>
   <si>
-    <t>Lab Worker, Manager</t>
-  </si>
-  <si>
-    <t>Create Test Sample Spreadsheet</t>
-  </si>
-  <si>
-    <t>Update Test Sample Spreadsheet</t>
-  </si>
-  <si>
-    <t>Read Test Sample Spreadsheet</t>
-  </si>
-  <si>
     <t>Billing</t>
   </si>
   <si>
-    <t>Lab Worker, Billing</t>
-  </si>
-  <si>
     <t>View Completed Reports</t>
   </si>
   <si>
@@ -264,9 +228,6 @@
     <t>Approve Further Test Recommendation</t>
   </si>
   <si>
-    <t>Read Assay Work Order Status</t>
-  </si>
-  <si>
     <t>Update Assay Work Order Status</t>
   </si>
   <si>
@@ -378,9 +339,6 @@
     <t>X Customer</t>
   </si>
   <si>
-    <t>X Billing</t>
-  </si>
-  <si>
     <t xml:space="preserve">X </t>
   </si>
   <si>
@@ -411,9 +369,6 @@
     <t>Sales Representative, Manager, Customer</t>
   </si>
   <si>
-    <t>Sales Representative, Manager, Lab Manager</t>
-  </si>
-  <si>
     <t>Sales Representative, Manager, Lab Manager, Customer</t>
   </si>
   <si>
@@ -448,6 +403,45 @@
   </si>
   <si>
     <t>Archive Profitability Reports</t>
+  </si>
+  <si>
+    <t>Send Compound Receipt Confirmation</t>
+  </si>
+  <si>
+    <t>Lab Worker, Lab Manager</t>
+  </si>
+  <si>
+    <t>Lab Worker, Lab Manager, Billing</t>
+  </si>
+  <si>
+    <t>Create employee account</t>
+  </si>
+  <si>
+    <t>Update employee account</t>
+  </si>
+  <si>
+    <t>View employee account</t>
+  </si>
+  <si>
+    <t>Archive employee account</t>
+  </si>
+  <si>
+    <t>View employee schedule</t>
+  </si>
+  <si>
+    <t>Update employee schedule</t>
+  </si>
+  <si>
+    <t>View Assay Work Order Status</t>
+  </si>
+  <si>
+    <t>Lab Worker, Lab Manager, Manager</t>
+  </si>
+  <si>
+    <t>Update Work Order Details For Assay</t>
+  </si>
+  <si>
+    <t>View Work Order Details For Assay</t>
   </si>
 </sst>
 </file>
@@ -555,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -575,6 +569,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1116,8 +1111,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B4:C16" totalsRowShown="0" dataDxfId="27">
-  <autoFilter ref="B4:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabla8" displayName="Tabla8" ref="B3:C15" totalsRowShown="0" dataDxfId="27">
+  <autoFilter ref="B3:C15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="26"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="25"/>
@@ -1127,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla18345" displayName="Tabla18345" ref="B99:C118" totalsRowShown="0">
-  <autoFilter ref="B99:C118"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla18345" displayName="Tabla18345" ref="B97:C116" totalsRowShown="0">
+  <autoFilter ref="B97:C116"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="3"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="2"/>
@@ -1138,8 +1133,8 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla183456" displayName="Tabla183456" ref="B121:C132" totalsRowShown="0">
-  <autoFilter ref="B121:C132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla183456" displayName="Tabla183456" ref="B119:C130" totalsRowShown="0">
+  <autoFilter ref="B119:C130"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="1"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="0"/>
@@ -1149,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B27:C41" totalsRowShown="0" dataDxfId="24">
-  <autoFilter ref="B27:C41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabla13" displayName="Tabla13" ref="B26:C39" totalsRowShown="0" dataDxfId="24">
+  <autoFilter ref="B26:C39"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="23"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="22"/>
@@ -1160,8 +1155,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B44:C49" totalsRowShown="0" dataDxfId="21">
-  <autoFilter ref="B44:C49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14" displayName="Tabla14" ref="B42:C47" totalsRowShown="0" dataDxfId="21">
+  <autoFilter ref="B42:C47"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="20"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="19"/>
@@ -1171,8 +1166,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B54:C64" totalsRowShown="0" dataDxfId="18">
-  <autoFilter ref="B54:C64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabla16" displayName="Tabla16" ref="B52:C62" totalsRowShown="0" dataDxfId="18">
+  <autoFilter ref="B52:C62"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="17"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="16"/>
@@ -1182,8 +1177,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B67:C73" totalsRowShown="0" dataDxfId="15">
-  <autoFilter ref="B67:C73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Tabla17" displayName="Tabla17" ref="B65:C71" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="B65:C71"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="14"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="13"/>
@@ -1193,8 +1188,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="B76:C80" totalsRowShown="0">
-  <autoFilter ref="B76:C80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabla18" displayName="Tabla18" ref="B74:C78" totalsRowShown="0">
+  <autoFilter ref="B74:C78"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="12"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="11"/>
@@ -1204,8 +1199,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B19:C24" totalsRowShown="0" dataDxfId="10">
-  <autoFilter ref="B19:C24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla82" displayName="Tabla82" ref="B18:C23" totalsRowShown="0" dataDxfId="10">
+  <autoFilter ref="B18:C23"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="9"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="8"/>
@@ -1215,8 +1210,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla183" displayName="Tabla183" ref="B83:C87" totalsRowShown="0">
-  <autoFilter ref="B83:C87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla183" displayName="Tabla183" ref="B81:C85" totalsRowShown="0">
+  <autoFilter ref="B81:C85"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="7"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="6"/>
@@ -1226,8 +1221,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla1834" displayName="Tabla1834" ref="B90:C96" totalsRowShown="0">
-  <autoFilter ref="B90:C96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla1834" displayName="Tabla1834" ref="B88:C94" totalsRowShown="0">
+  <autoFilter ref="B88:C94"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Use Case" dataDxfId="5"/>
     <tableColumn id="2" name="Users/actors" dataDxfId="4"/>
@@ -1533,17 +1528,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1552,1324 +1547,1304 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>31</v>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>129</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B18" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
-        <v>13</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="11">
-        <v>17</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="E24"/>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="E25"/>
-    </row>
-    <row r="26" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>31</v>
+      <c r="A27" s="11">
+        <v>18</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
-        <v>19</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
-        <v>20</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
-        <v>21</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>112</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="11">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>25</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>26</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>27</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>28</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>29</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>30</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B41" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="C42" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="11">
+        <v>31</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>32</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="17">
+        <v>33</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="17">
+        <v>34</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="17">
+        <v>35</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+      <c r="C47" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
+    </row>
+    <row r="49" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="9" t="s">
+    </row>
+    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11">
+        <v>36</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="11">
+        <v>37</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="17">
         <v>38</v>
       </c>
-      <c r="E35" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="11">
+      <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
-        <v>27</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>28</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
-        <v>29</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="11">
-        <v>30</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>31</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
-        <v>32</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="11">
-        <v>33</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
-        <v>34</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="11">
-        <v>35</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
-        <v>36</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-    </row>
-    <row r="51" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:5" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
-        <v>37</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="17">
+        <v>39</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="11">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
-        <v>39</v>
+    <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="17">
+        <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="11">
-        <v>40</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="17">
+        <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
-        <v>41</v>
+    <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="17">
+        <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="11">
-        <v>42</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="17">
+        <v>43</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
-        <v>43</v>
+    <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="17">
+        <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="11">
-        <v>44</v>
+    <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="17">
+        <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
-        <v>45</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="11">
+        <v>46</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="11">
+        <v>47</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17">
+        <v>48</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17">
+        <v>49</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C69" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="17">
+        <v>50</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17">
+        <v>51</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="11">
-        <v>46</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C64" s="1" t="s">
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="19"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="11">
+        <v>52</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11">
+        <v>53</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="17">
+        <v>54</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="17">
+        <v>55</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80" s="19"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="11">
+        <v>56</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="11">
+        <v>57</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="17">
+        <v>58</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="17">
+        <v>59</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87" s="19"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11">
+        <v>60</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E89" s="15"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="11">
+        <v>61</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="17">
+        <v>62</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17">
+        <v>63</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="17">
+        <v>64</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="17">
+        <v>65</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" s="19"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="11">
+        <v>66</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="11">
+        <v>67</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="17">
+        <v>68</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="17">
+        <v>69</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="17">
+        <v>70</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="18"/>
-    </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11">
-        <v>47</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
-        <v>48</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="1" t="s">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="17">
+        <v>71</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11">
-        <v>49</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
-        <v>50</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="11">
-        <v>51</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
-        <v>52</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C75" s="18"/>
-    </row>
-    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
-        <v>53</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="11">
-        <v>54</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
-        <v>55</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11">
-        <v>56</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="18"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="11">
-        <v>57</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
-        <v>58</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="11">
-        <v>59</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
-        <v>60</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C89" s="18"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
-        <v>61</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91" s="15"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
-        <v>62</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
-        <v>63</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="11">
-        <v>64</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="17">
         <v>72</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
-        <v>65</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="11">
-        <v>66</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E96" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="18"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="11">
-        <v>67</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
-        <v>68</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="11">
-        <v>69</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
-        <v>70</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="11">
-        <v>71</v>
-      </c>
       <c r="B104" s="12" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
-        <v>72</v>
+      <c r="A105" s="17">
+        <v>73</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C105" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="11">
-        <v>73</v>
-      </c>
-      <c r="B106" s="12" t="s">
-        <v>93</v>
+      <c r="A106" s="17">
+        <v>74</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E106" s="15" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
-        <v>74</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>96</v>
+      <c r="A107" s="17">
+        <v>75</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="11">
-        <v>75</v>
+      <c r="A108" s="17">
+        <v>76</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E108" s="15" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
-        <v>76</v>
+      <c r="A109" s="17">
+        <v>77</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="11">
-        <v>77</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>141</v>
+      <c r="A110" s="17">
+        <v>78</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
-        <v>78</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>142</v>
+      <c r="A111" s="17">
+        <v>79</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11">
-        <v>79</v>
+      <c r="A112" s="17">
+        <v>80</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
-        <v>80</v>
+      <c r="A113" s="17">
+        <v>81</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="11">
-        <v>81</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="A114" s="17">
+        <v>82</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="17">
+        <v>83</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="17">
+        <v>84</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C118" s="19"/>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="11">
+        <v>85</v>
+      </c>
+      <c r="B120" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
-        <v>82</v>
-      </c>
-      <c r="B115" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="11">
-        <v>83</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+      <c r="C120" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="11">
+        <v>86</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="11">
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="17">
+        <v>87</v>
+      </c>
+      <c r="B122" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C120" s="18"/>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="11">
+      <c r="C122" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="17">
+        <v>88</v>
+      </c>
+      <c r="B123" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B122" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="C123" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="17">
+        <v>89</v>
+      </c>
+      <c r="B124" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="C124" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="17">
+        <v>90</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E125" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="17">
+        <v>91</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E126"/>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="17">
+        <v>92</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="17">
+        <v>93</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="11">
-        <v>88</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11">
-        <v>89</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C125" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="11">
-        <v>90</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C126" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11">
-        <v>91</v>
-      </c>
-      <c r="B127" s="12" t="s">
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="17">
+        <v>94</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E129" s="11"/>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="17">
+        <v>95</v>
+      </c>
+      <c r="B130" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C127" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="11">
-        <v>92</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C128" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E128"/>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11">
+      <c r="C130" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C129" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="11">
-        <v>94</v>
-      </c>
-      <c r="B130" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11">
-        <v>95</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E131" s="11"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11">
-        <v>96</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C132" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B48:C48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -19,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
   <si>
     <t>Create an order</t>
   </si>
   <si>
-    <t>Save order</t>
-  </si>
-  <si>
-    <t>Cancel order</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -126,12 +120,6 @@
     <t>Update Compound Weighing and Dispensing Log</t>
   </si>
   <si>
-    <t>Read Compound Reciept Log</t>
-  </si>
-  <si>
-    <t>Read Compound Weighing and Dispensing Log</t>
-  </si>
-  <si>
     <t>Billing</t>
   </si>
   <si>
@@ -411,9 +399,6 @@
     <t>Lab Worker, Lab Manager</t>
   </si>
   <si>
-    <t>Lab Worker, Lab Manager, Billing</t>
-  </si>
-  <si>
     <t>Create employee account</t>
   </si>
   <si>
@@ -435,13 +420,34 @@
     <t>View Assay Work Order Status</t>
   </si>
   <si>
-    <t>Lab Worker, Lab Manager, Manager</t>
-  </si>
-  <si>
     <t>Update Work Order Details For Assay</t>
   </si>
   <si>
     <t>View Work Order Details For Assay</t>
+  </si>
+  <si>
+    <t>View Compound Reciept Log</t>
+  </si>
+  <si>
+    <t>View Compound Weighing and Dispensing Log</t>
+  </si>
+  <si>
+    <t>Update Order</t>
+  </si>
+  <si>
+    <t>Cancel Order</t>
+  </si>
+  <si>
+    <t>Lab Employees, Technical Assistant, Technical Manager</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>Lab Employees, Billing, Manager, Sales Representative</t>
+  </si>
+  <si>
+    <t>Lab Employees, Sales Representative, Manager, Customer</t>
   </si>
 </sst>
 </file>
@@ -1528,75 +1534,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
-    <col min="3" max="3" width="47.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>4</v>
       </c>
@@ -1604,440 +1613,461 @@
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>2</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>14</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>15</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>17</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="E24"/>
     </row>
-    <row r="25" spans="1:5" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="19"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>19</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>117</v>
+        <v>132</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>22</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>23</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>35</v>
+      <c r="B32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>24</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>36</v>
+      <c r="B33" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E35"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>27</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>28</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>29</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E38" s="15"/>
     </row>
-    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>30</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>31</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>32</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>33</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>34</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>35</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
     </row>
@@ -2045,16 +2075,16 @@
     <row r="50" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="20" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2062,10 +2092,10 @@
         <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2073,10 +2103,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2084,10 +2114,10 @@
         <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2095,10 +2125,10 @@
         <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2106,10 +2136,10 @@
         <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2117,10 +2147,10 @@
         <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2128,10 +2158,10 @@
         <v>42</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2139,10 +2169,10 @@
         <v>43</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2150,10 +2180,10 @@
         <v>44</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2161,10 +2191,10 @@
         <v>45</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2173,16 +2203,16 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C64" s="19"/>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2190,10 +2220,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2201,10 +2231,10 @@
         <v>47</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2212,10 +2242,10 @@
         <v>48</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,10 +2253,10 @@
         <v>49</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2234,10 +2264,10 @@
         <v>50</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2245,10 +2275,10 @@
         <v>51</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,16 +2287,16 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C73" s="19"/>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2274,10 +2304,10 @@
         <v>52</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,10 +2315,10 @@
         <v>53</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2296,10 +2326,10 @@
         <v>54</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2307,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2318,16 +2348,16 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C80" s="19"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2335,10 +2365,10 @@
         <v>56</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2346,10 +2376,10 @@
         <v>57</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2357,10 +2387,10 @@
         <v>58</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2368,24 +2398,24 @@
         <v>59</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C87" s="19"/>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2393,10 +2423,10 @@
         <v>60</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E89" s="15"/>
     </row>
@@ -2405,10 +2435,10 @@
         <v>61</v>
       </c>
       <c r="B90" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2446,10 @@
         <v>62</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E91" s="15"/>
     </row>
@@ -2428,10 +2458,10 @@
         <v>63</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2439,10 +2469,10 @@
         <v>64</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2450,362 +2480,368 @@
         <v>65</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C94" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="18" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C96" s="19"/>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="11">
         <v>66</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
         <v>67</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="17">
         <v>68</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="17">
         <v>69</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="17">
         <v>70</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="17">
         <v>71</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="17">
         <v>72</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="17">
         <v>73</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="17">
         <v>74</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="17">
         <v>75</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="17">
         <v>76</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="17">
         <v>77</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="17">
         <v>78</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="17">
         <v>79</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17">
         <v>80</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="17">
         <v>81</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="17">
         <v>82</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="F114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="17">
         <v>83</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="17">
         <v>84</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C118" s="19"/>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
         <v>85</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
         <v>86</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17">
         <v>87</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="17">
         <v>88</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="17">
         <v>89</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="17">
         <v>90</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="17">
         <v>91</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E126"/>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="17">
         <v>92</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="17">
         <v>93</v>
       </c>
       <c r="B128" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E128" s="15" t="s">
         <v>103</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2813,10 +2849,10 @@
         <v>94</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E129" s="11"/>
     </row>
@@ -2825,10 +2861,10 @@
         <v>95</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/INTEXUseCases.xlsx
+++ b/INTEXUseCases.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="144">
   <si>
     <t>Create an order</t>
   </si>
@@ -369,15 +369,6 @@
     <t>Manager, Accountant, Sales Representative</t>
   </si>
   <si>
-    <t>Create Monthly Sales Representativeorts</t>
-  </si>
-  <si>
-    <t>Update Monthly Sales Representativeorts</t>
-  </si>
-  <si>
-    <t>View Monthly Sales Representativeorts</t>
-  </si>
-  <si>
     <t>Archive Monthly Sales Representativeorts</t>
   </si>
   <si>
@@ -448,6 +439,18 @@
   </si>
   <si>
     <t>Lab Employees, Sales Representative, Manager, Customer</t>
+  </si>
+  <si>
+    <t>Create Monthly Sales Representative</t>
+  </si>
+  <si>
+    <t>Update Monthly Sales Representative</t>
+  </si>
+  <si>
+    <t>View Monthly Sales Representative</t>
+  </si>
+  <si>
+    <t>Archive Monthly Sales Representative</t>
   </si>
 </sst>
 </file>
@@ -1536,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1580,7 +1583,7 @@
         <v>110</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
@@ -1619,7 +1622,7 @@
         <v>110</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1627,7 +1630,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>112</v>
@@ -1638,7 +1641,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>112</v>
@@ -1786,7 +1789,7 @@
         <v>95</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1819,7 +1822,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E27" s="6"/>
     </row>
@@ -1831,7 +1834,7 @@
         <v>65</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>95</v>
@@ -1842,16 +1845,16 @@
         <v>20</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>101</v>
       </c>
       <c r="F29" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1859,16 +1862,16 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1879,7 +1882,7 @@
         <v>32</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="6"/>
     </row>
@@ -1888,10 +1891,10 @@
         <v>23</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1899,10 +1902,10 @@
         <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1910,16 +1913,16 @@
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>95</v>
       </c>
       <c r="F34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1927,10 +1930,10 @@
         <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E35"/>
     </row>
@@ -1942,7 +1945,7 @@
         <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>95</v>
@@ -1956,7 +1959,7 @@
         <v>62</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1985,7 +1988,7 @@
         <v>101</v>
       </c>
       <c r="F39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2064,7 +2067,7 @@
         <v>101</v>
       </c>
       <c r="F47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2092,7 +2095,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>1</v>
@@ -2103,7 +2106,7 @@
         <v>37</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>24</v>
@@ -2114,7 +2117,7 @@
         <v>38</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>24</v>
@@ -2125,7 +2128,7 @@
         <v>39</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>1</v>
@@ -2136,7 +2139,7 @@
         <v>40</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>24</v>
@@ -2147,7 +2150,7 @@
         <v>41</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>1</v>
@@ -2596,7 +2599,7 @@
         <v>74</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C106" s="9" t="s">
         <v>1</v>
@@ -2605,7 +2608,7 @@
         <v>102</v>
       </c>
       <c r="F106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2613,7 +2616,7 @@
         <v>75</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>1</v>
@@ -2624,7 +2627,7 @@
         <v>76</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>77</v>
@@ -2635,7 +2638,7 @@
         <v>77</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>1</v>
@@ -2645,8 +2648,8 @@
       <c r="A110" s="17">
         <v>78</v>
       </c>
-      <c r="B110" s="12" t="s">
-        <v>116</v>
+      <c r="B110" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>1</v>
@@ -2656,8 +2659,8 @@
       <c r="A111" s="17">
         <v>79</v>
       </c>
-      <c r="B111" s="12" t="s">
-        <v>117</v>
+      <c r="B111" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>1</v>
@@ -2667,8 +2670,8 @@
       <c r="A112" s="17">
         <v>80</v>
       </c>
-      <c r="B112" s="12" t="s">
-        <v>118</v>
+      <c r="B112" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="C112" s="9" t="s">
         <v>78</v>
@@ -2678,8 +2681,8 @@
       <c r="A113" s="17">
         <v>81</v>
       </c>
-      <c r="B113" s="12" t="s">
-        <v>119</v>
+      <c r="B113" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>1</v>
@@ -2699,7 +2702,7 @@
         <v>110</v>
       </c>
       <c r="F114" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2746,7 +2749,7 @@
         <v>91</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
